--- a/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,146 +33,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共北京师范大学第十三届委员会委员选举结果报告单</t>
+    <t>总监票人：                总计票人：                汇总计票人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>候选人得赞成票数如下（以得票多少为序）：</t>
+    <t>另选人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>另选他人得赞成票数如下（以得票多少为序）：</t>
+    <t>另选人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总监票人：</t>
+    <t>候选人得赞成票数如下（以获得赞成票多少为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计票人：</t>
+    <t>另选人得赞成票数如下（以获得赞成票多少为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2017年11月   日           </t>
+    <t xml:space="preserve">2017年11月26日      </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>本次选举大会实到代表</t>
+    <t>中共北京师范大学第十三届委员会委员计票结果报告单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   本次选举应到代表268</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名，实到代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> jc  </t>
+      <t>jc</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名；发出选票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>名，发出选票</t>
+      <t>sv</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张，收回选票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> sv </t>
+      <t>bv</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张，其中有效票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>张，收回选票</t>
+      <t>vc</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张，无效票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> bv </t>
+      <t>ic</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，其中有效票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> vc </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，无效票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  ic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +194,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +212,22 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="方正小标宋简体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,19 +321,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,20 +342,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,23 +643,23 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" customHeight="1">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -664,27 +667,27 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="27.75" customHeight="1">
+    <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.75" customHeight="1">
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -716,7 +719,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1">
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -728,7 +731,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1">
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -740,7 +743,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1">
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="27.75" customHeight="1">
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -764,7 +767,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="27.75" customHeight="1">
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -776,7 +779,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="27.75" customHeight="1">
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -788,7 +791,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="27.75" customHeight="1">
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -800,7 +803,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="27.75" customHeight="1">
+    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -812,7 +815,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="27.75" customHeight="1">
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -824,7 +827,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="27.75" customHeight="1">
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -836,7 +839,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="27.75" customHeight="1">
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -848,7 +851,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="27.75" customHeight="1">
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -860,7 +863,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="27.75" customHeight="1">
+    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="27.75" customHeight="1">
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -884,22 +887,22 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="27.75" customHeight="1">
+    <row r="20" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
@@ -908,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27.75" customHeight="1">
+    <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -926,7 +929,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="27.75" customHeight="1">
+    <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -938,7 +941,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="27.75" customHeight="1">
+    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="27.75" customHeight="1">
+    <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -962,7 +965,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="27.75" customHeight="1">
+    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -974,19 +977,17 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.75" customHeight="1">
+    <row r="27" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
@@ -997,14 +998,13 @@
       <c r="F28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
@@ -640,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -923,87 +923,37 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="6">
-        <v>6</v>
-      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="23" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6">
-        <v>10</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,10 @@
       <t>张。</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -643,7 +647,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -918,14 +922,24 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">

--- a/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82455F93-D1B7-42D8-92AD-32FDEC2368F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共北京师范大学第十三届委员会委员计票结果报告单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">   本次选举应到代表268</t>
     </r>
@@ -68,6 +65,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名，实到代表</t>
@@ -85,6 +83,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名；发出选票</t>
@@ -102,6 +101,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张，收回选票</t>
@@ -119,6 +119,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张，其中有效票</t>
@@ -136,6 +137,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张，无效票</t>
@@ -153,6 +155,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>张。</t>
@@ -161,14 +164,18 @@
   </si>
   <si>
     <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,11 +229,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -643,14 +652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
@@ -661,9 +670,9 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -671,9 +680,9 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -681,7 +690,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="35.25" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
@@ -691,7 +700,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -711,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="27" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -723,7 +732,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="27" customHeight="1">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -735,7 +744,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="27" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -747,7 +756,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="27" customHeight="1">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -759,7 +768,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="27" customHeight="1">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -771,7 +780,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="27" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -783,7 +792,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="27" customHeight="1">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -795,7 +804,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="27" customHeight="1">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -807,7 +816,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="27" customHeight="1">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -819,7 +828,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="27" customHeight="1">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -831,7 +840,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="27" customHeight="1">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -843,7 +852,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -855,7 +864,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="27" customHeight="1">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -867,7 +876,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="27" customHeight="1">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -879,7 +888,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="27" customHeight="1">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -891,7 +900,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="35.25" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -901,7 +910,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="27" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -921,27 +930,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="27" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27.75" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>3</v>
       </c>
@@ -951,7 +960,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="21.75" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>

--- a/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_zj.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82455F93-D1B7-42D8-92AD-32FDEC2368F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D48F6D-1EE8-40A6-9CF9-CCC70EF5A724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2017年11月26日      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">   本次选举应到代表268</t>
     </r>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">年   月   日      </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
@@ -672,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="48.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -932,22 +932,22 @@
     </row>
     <row r="22" spans="1:6" ht="27" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1">
@@ -962,7 +962,7 @@
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
